--- a/import_test/jzz_test.xlsx
+++ b/import_test/jzz_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6AFE4C-10E6-244F-805E-23079DB34DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386675E0-E5A5-DC48-88F6-1CB4AF37A177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="17000" yWindow="5100" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>姓名</t>
   </si>
@@ -64,253 +64,257 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>陈轩</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
+    <t>830000196110401001</t>
+  </si>
+  <si>
+    <t>01381648</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥街道双梅小区桂花苑3幢102室</t>
+  </si>
+  <si>
+    <t>13735302099</t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
     <t>黄一凯</t>
   </si>
   <si>
     <t>83000019781124701X</t>
   </si>
   <si>
+    <t>04807937</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯北大道788号电商综合楼8楼</t>
+  </si>
+  <si>
+    <t>13864553296</t>
+  </si>
+  <si>
     <t>叶振北</t>
   </si>
   <si>
+    <t>830000195909517001</t>
+  </si>
+  <si>
+    <t>02771582</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥街道世贸名流玉都苑4幢312室</t>
+  </si>
+  <si>
+    <t>15858570855</t>
+  </si>
+  <si>
     <t>杨洋志</t>
   </si>
   <si>
+    <t>830000196308150801</t>
+  </si>
+  <si>
+    <t>00627496</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥金柯桥大道2998号绍兴轻纺贸易中心4幢4-618室</t>
+  </si>
+  <si>
+    <t>15381663579</t>
+  </si>
+  <si>
     <t>陈昌</t>
   </si>
   <si>
+    <t>830000196001265001</t>
+  </si>
+  <si>
+    <t>02677304</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯北大道487号台商针织园区48幢</t>
+  </si>
+  <si>
+    <t>13732450196</t>
+  </si>
+  <si>
     <t>赵文地</t>
   </si>
   <si>
+    <t>830000196402290101</t>
+  </si>
+  <si>
+    <t>08876793</t>
+  </si>
+  <si>
     <t>浙江省绍兴市柯桥区柯桥经济开发区柯北工业园区</t>
   </si>
   <si>
+    <t>15088539818</t>
+  </si>
+  <si>
     <t>吴波斗</t>
   </si>
   <si>
     <t>83000019780917801X</t>
   </si>
   <si>
+    <t>03707416</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥街道湖中路世纪星城18幢502室</t>
+  </si>
+  <si>
+    <t>13989559818</t>
+  </si>
+  <si>
     <t>刘春纺</t>
   </si>
   <si>
+    <t>8300001956042304016</t>
+  </si>
+  <si>
+    <t>01217909</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区齐贤镇柯北大道487号1幢租209</t>
+  </si>
+  <si>
+    <t>13758557628</t>
+  </si>
+  <si>
     <t>张春颜</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
+    <t>830000196611068021</t>
+  </si>
+  <si>
+    <t>08876712</t>
+  </si>
+  <si>
+    <t>18258046753</t>
+  </si>
+  <si>
     <t>苏丽诲</t>
   </si>
   <si>
+    <t>830000195910140802</t>
+  </si>
+  <si>
+    <t>00654741</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥经济开发区柯北大道47号台商针织园区5幢</t>
+  </si>
+  <si>
+    <t>13588589669</t>
+  </si>
+  <si>
     <t>简秀灾</t>
   </si>
   <si>
     <t>83000019591108082X</t>
   </si>
   <si>
+    <t>05769200</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区齐贤镇柯北大道487号1幢租204</t>
+  </si>
+  <si>
+    <t>13819503490</t>
+  </si>
+  <si>
     <t>蔡堂</t>
   </si>
   <si>
     <t>83000019591016501X</t>
   </si>
   <si>
+    <t>00400192</t>
+  </si>
+  <si>
     <t>浙江省绍兴市柯桥区柯桥经济开发区柯北工业园台商针织园区5幢</t>
   </si>
   <si>
+    <t>13819581818</t>
+  </si>
+  <si>
     <t>谢乡市</t>
   </si>
   <si>
     <t>83000019501006803X</t>
   </si>
   <si>
+    <t>01895447</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥街道立新花园南区8幢802</t>
+  </si>
+  <si>
+    <t>13758562882</t>
+  </si>
+  <si>
     <t>许东</t>
   </si>
   <si>
+    <t>830000198109110710</t>
+  </si>
+  <si>
+    <t>07959751</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥街道玉兰花园扶云苑2幢201室</t>
+  </si>
+  <si>
+    <t>18658119902</t>
+  </si>
+  <si>
     <t>杨迪产</t>
   </si>
   <si>
+    <t>830000198107100911</t>
+  </si>
+  <si>
+    <t>02938934</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥街道世贸名流明景苑2幢1068室</t>
+  </si>
+  <si>
+    <t>15988211888</t>
+  </si>
+  <si>
     <t>邱文产</t>
   </si>
   <si>
+    <t>830000197308280078</t>
+  </si>
+  <si>
+    <t>03278400</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市柯桥区柯桥街道万达广场3幢151室</t>
+  </si>
+  <si>
+    <t>13758554232</t>
+  </si>
+  <si>
     <t>游淡溶</t>
-  </si>
-  <si>
-    <t>830000196110401001</t>
-  </si>
-  <si>
-    <t>01381648</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥街道双梅小区桂花苑3幢102室</t>
-  </si>
-  <si>
-    <t>13735302099</t>
-  </si>
-  <si>
-    <t>2018-09-01</t>
-  </si>
-  <si>
-    <t>04807937</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯北大道788号电商综合楼8楼</t>
-  </si>
-  <si>
-    <t>13864553296</t>
-  </si>
-  <si>
-    <t>830000195909517001</t>
-  </si>
-  <si>
-    <t>02771582</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥街道世贸名流玉都苑4幢312室</t>
-  </si>
-  <si>
-    <t>15858570855</t>
-  </si>
-  <si>
-    <t>830000196308150801</t>
-  </si>
-  <si>
-    <t>00627496</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥金柯桥大道2998号绍兴轻纺贸易中心4幢4-618室</t>
-  </si>
-  <si>
-    <t>15381663579</t>
-  </si>
-  <si>
-    <t>830000196001265001</t>
-  </si>
-  <si>
-    <t>02677304</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯北大道487号台商针织园区48幢</t>
-  </si>
-  <si>
-    <t>13732450196</t>
-  </si>
-  <si>
-    <t>830000196402290101</t>
-  </si>
-  <si>
-    <t>08876793</t>
-  </si>
-  <si>
-    <t>15088539818</t>
-  </si>
-  <si>
-    <t>03707416</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥街道湖中路世纪星城18幢502室</t>
-  </si>
-  <si>
-    <t>13989559818</t>
-  </si>
-  <si>
-    <t>8300001956042304016</t>
-  </si>
-  <si>
-    <t>01217909</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区齐贤镇柯北大道487号1幢租209</t>
-  </si>
-  <si>
-    <t>13758557628</t>
-  </si>
-  <si>
-    <t>830000196611068021</t>
-  </si>
-  <si>
-    <t>08876712</t>
-  </si>
-  <si>
-    <t>18258046753</t>
-  </si>
-  <si>
-    <t>830000195910140802</t>
-  </si>
-  <si>
-    <t>00654741</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥经济开发区柯北大道47号台商针织园区5幢</t>
-  </si>
-  <si>
-    <t>13588589669</t>
-  </si>
-  <si>
-    <t>05769200</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区齐贤镇柯北大道487号1幢租204</t>
-  </si>
-  <si>
-    <t>13819503490</t>
-  </si>
-  <si>
-    <t>00400192</t>
-  </si>
-  <si>
-    <t>13819581818</t>
-  </si>
-  <si>
-    <t>01895447</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥街道立新花园南区8幢802</t>
-  </si>
-  <si>
-    <t>13758562882</t>
-  </si>
-  <si>
-    <t>830000198109110710</t>
-  </si>
-  <si>
-    <t>07959751</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥街道玉兰花园扶云苑2幢201室</t>
-  </si>
-  <si>
-    <t>18658119902</t>
-  </si>
-  <si>
-    <t>830000198107100911</t>
-  </si>
-  <si>
-    <t>02938934</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥街道世贸名流明景苑2幢1068室</t>
-  </si>
-  <si>
-    <t>15988211888</t>
-  </si>
-  <si>
-    <t>830000197308280078</t>
-  </si>
-  <si>
-    <t>03278400</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市柯桥区柯桥街道万达广场3幢151室</t>
-  </si>
-  <si>
-    <t>13758554232</t>
   </si>
   <si>
     <t>830000195705200919</t>
@@ -369,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -392,13 +396,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,7 +421,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,24 +741,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -753,410 +769,411 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>93</v>
@@ -1168,12 +1185,15 @@
         <v>95</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import_test/jzz_test.xlsx
+++ b/import_test/jzz_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386675E0-E5A5-DC48-88F6-1CB4AF37A177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C567E6B4-27B9-F641-8D20-358713944CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17000" yWindow="5100" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
@@ -744,17 +744,20 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="72.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -801,395 +804,429 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="1" t="s">
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="1" t="s">
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="1" t="s">
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/import_test/jzz_test.xlsx
+++ b/import_test/jzz_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C567E6B4-27B9-F641-8D20-358713944CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F8CB5-FEE2-3044-BE39-94B854575911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="5100" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="17020" yWindow="5640" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>居住证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陈轩</t>
@@ -343,24 +343,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -373,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -396,35 +398,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,495 +734,495 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2"/>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2"/>
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/import_test/jzz_test.xlsx
+++ b/import_test/jzz_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F8CB5-FEE2-3044-BE39-94B854575911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5A9D72-9166-43AF-8007-4BF9DB7C15FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17020" yWindow="5640" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,13 +408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,489 +734,489 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
